--- a/biology/Médecine/Hôtel-Dieu_de_Marseille/Hôtel-Dieu_de_Marseille.xlsx
+++ b/biology/Médecine/Hôtel-Dieu_de_Marseille/Hôtel-Dieu_de_Marseille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_de_Marseille</t>
+          <t>Hôtel-Dieu_de_Marseille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Érigé à partir de 1753 sur les plans et élévations de Jacques Hardouin-Mansart de Sagonne, l'Hôtel-Dieu de Marseille est un ancien hôpital marseillais situé dans le quartier du Panier. Au moment des festivités de Marseille-Provence 2013, l'Hôtel-Dieu a été transformé en hôtel 5 étoiles, géré par le groupe hôtelier britannique InterContinental sous le nom d'InterContinental Marseille Hotel Dieu[2]. La rénovation de l'hôpital en hôtel a pris fin le 29 avril 2013. Il est desservi par la station  Vieux-Port du métro de Marseille.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Érigé à partir de 1753 sur les plans et élévations de Jacques Hardouin-Mansart de Sagonne, l'Hôtel-Dieu de Marseille est un ancien hôpital marseillais situé dans le quartier du Panier. Au moment des festivités de Marseille-Provence 2013, l'Hôtel-Dieu a été transformé en hôtel 5 étoiles, géré par le groupe hôtelier britannique InterContinental sous le nom d'InterContinental Marseille Hotel Dieu. La rénovation de l'hôpital en hôtel a pris fin le 29 avril 2013. Il est desservi par la station  Vieux-Port du métro de Marseille.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_de_Marseille</t>
+          <t>Hôtel-Dieu_de_Marseille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hôtel-Dieu a été fondé en 1593 grâce à la réunion de l'hôpital Saint-Jacques-de-Galice et de celui du Saint-Esprit (dont il récupère les locaux). Sous l'Ancien Régime, il se différencie des autres hôpitaux français en confiant le soin de ses malades à un personnel exclusivement laïc.
 Cet établissement a servi à la fin du XXe siècle à l'enseignement de professions médicales (sage-femme) et paramédicales (infirmiers anesthésistes, de bloc opératoire, puéricultrice, auxiliaires de puériculture, manipulateurs en imageries médicales, cadres de santé...) jusqu'en novembre 2006.
